--- a/Project2/Project2/Book2.xlsx
+++ b/Project2/Project2/Book2.xlsx
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BC46" sqref="BC46"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1788,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -2272,16 +2272,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -2514,16 +2514,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2756,16 +2756,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -2959,25 +2959,25 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -3482,16 +3482,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -3724,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -3966,16 +3966,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -3996,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -4208,16 +4208,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS23">
         <v>0</v>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM26">
         <v>0</v>

--- a/Project2/Project2/Book2.xlsx
+++ b/Project2/Project2/Book2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\test\Project2\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f735e9945a12afe/デスクトップ/新しいフォルダー/Project2/Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_61299936B5EC344CB4BAB57BF5768B42A9734067" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5A7E437-1743-4169-9782-50FA0ADC9570}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="8595"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1006,19 +1007,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="80" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -6342,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7068,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -7794,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8036,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9004,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -9972,7 +9973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -11182,7 +11183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -11424,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11666,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -12150,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -12392,7 +12393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
@@ -12876,7 +12877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
@@ -13360,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1</v>
       </c>
@@ -13602,7 +13603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1</v>
       </c>
@@ -13844,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1</v>
       </c>
@@ -14086,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1</v>
       </c>
@@ -14328,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1</v>
       </c>
@@ -14570,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1</v>
       </c>
@@ -15054,7 +15055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1</v>
       </c>
@@ -15296,7 +15297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1</v>
       </c>

--- a/Project2/Project2/Book2.xlsx
+++ b/Project2/Project2/Book2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f735e9945a12afe/デスクトップ/新しいフォルダー/Project2/Project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\test\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_61299936B5EC344CB4BAB57BF5768B42A9734067" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5A7E437-1743-4169-9782-50FA0ADC9570}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1007,19 +1006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="80" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2981,10 +2980,10 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3197,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3692,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3923,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7795,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8037,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8521,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9489,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -9731,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -11183,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11667,7 +11666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1</v>
       </c>
@@ -11909,7 +11908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1</v>
       </c>
@@ -12151,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1</v>
       </c>
@@ -12877,7 +12876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1</v>
       </c>
@@ -13361,7 +13360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1</v>
       </c>
@@ -14087,7 +14086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1</v>
       </c>
@@ -14329,7 +14328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1</v>
       </c>
@@ -14571,7 +14570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1</v>
       </c>
@@ -15055,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1</v>
       </c>
@@ -15297,7 +15296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
